--- a/ds_nc1.xlsx
+++ b/ds_nc1.xlsx
@@ -1643,7 +1643,7 @@
   <dimension ref="A1:V200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1894,12 +1894,6 @@
       <c r="E5">
         <v>2019</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
         <v>11594</v>
       </c>
@@ -2015,12 +2009,6 @@
       <c r="E7">
         <v>2019</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
         <v>136020</v>
       </c>
@@ -2083,12 +2071,6 @@
       <c r="E8">
         <v>2019</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>187759</v>
       </c>
@@ -2467,12 +2449,6 @@
       <c r="E14">
         <v>2019</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
         <v>19109</v>
       </c>
@@ -2532,12 +2508,6 @@
       <c r="E15">
         <v>2019</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
         <v>489147</v>
       </c>
@@ -2848,9 +2818,6 @@
       <c r="E20">
         <v>2019</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
       <c r="G20">
         <v>-428</v>
       </c>
@@ -2913,9 +2880,6 @@
       <c r="E21">
         <v>2019</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
       <c r="G21">
         <v>54685</v>
       </c>
@@ -2980,9 +2944,6 @@
       </c>
       <c r="E22">
         <v>2019</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
       </c>
       <c r="G22">
         <v>244840</v>
